--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H2">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="N2">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="O2">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="P2">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="Q2">
-        <v>94.76281893325691</v>
+        <v>10.58717346710278</v>
       </c>
       <c r="R2">
-        <v>852.865370399312</v>
+        <v>95.28456120392501</v>
       </c>
       <c r="S2">
-        <v>0.02450965426097678</v>
+        <v>0.003379826261896991</v>
       </c>
       <c r="T2">
-        <v>0.02450965426097678</v>
+        <v>0.003379826261896991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H3">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.537166</v>
       </c>
       <c r="O3">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="P3">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="Q3">
-        <v>1.067128135391778</v>
+        <v>0.374560385238889</v>
       </c>
       <c r="R3">
-        <v>9.604153218526001</v>
+        <v>3.37104346715</v>
       </c>
       <c r="S3">
-        <v>0.0002760042593185697</v>
+        <v>0.0001195738438243501</v>
       </c>
       <c r="T3">
-        <v>0.0002760042593185697</v>
+        <v>0.0001195738438243501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H4">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="N4">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="O4">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="P4">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="Q4">
-        <v>86.73508667198723</v>
+        <v>41.467249624475</v>
       </c>
       <c r="R4">
-        <v>780.615780047885</v>
+        <v>373.205246620275</v>
       </c>
       <c r="S4">
-        <v>0.02243334475015494</v>
+        <v>0.01323791470168401</v>
       </c>
       <c r="T4">
-        <v>0.02243334475015495</v>
+        <v>0.01323791470168401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J5">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="N5">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="O5">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="P5">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="Q5">
-        <v>1696.378192800747</v>
+        <v>539.9573607852467</v>
       </c>
       <c r="R5">
-        <v>15267.40373520672</v>
+        <v>4859.61624706722</v>
       </c>
       <c r="S5">
-        <v>0.4387548140657442</v>
+        <v>0.1723748150492874</v>
       </c>
       <c r="T5">
-        <v>0.4387548140657442</v>
+        <v>0.1723748150492874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J6">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>1.537166</v>
       </c>
       <c r="O6">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="P6">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="Q6">
-        <v>19.10298699617334</v>
+        <v>19.10298699617333</v>
       </c>
       <c r="R6">
         <v>171.92688296556</v>
       </c>
       <c r="S6">
-        <v>0.004940836626630014</v>
+        <v>0.006098396076248644</v>
       </c>
       <c r="T6">
-        <v>0.004940836626630014</v>
+        <v>0.006098396076248643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J7">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="N7">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="O7">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="P7">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="Q7">
-        <v>1552.671303337567</v>
+        <v>2114.87482809534</v>
       </c>
       <c r="R7">
-        <v>13974.0417300381</v>
+        <v>19033.87345285806</v>
       </c>
       <c r="S7">
-        <v>0.4015861627390703</v>
+        <v>0.6751480465331005</v>
       </c>
       <c r="T7">
-        <v>0.4015861627390704</v>
+        <v>0.6751480465331005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H8">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="N8">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="O8">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="P8">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="Q8">
-        <v>215.7378372433014</v>
+        <v>82.00456869088555</v>
       </c>
       <c r="R8">
-        <v>1941.640535189712</v>
+        <v>738.0411182179701</v>
       </c>
       <c r="S8">
-        <v>0.05579888675080875</v>
+        <v>0.02617896039185584</v>
       </c>
       <c r="T8">
-        <v>0.05579888675080875</v>
+        <v>0.02617896039185584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H9">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.537166</v>
       </c>
       <c r="O9">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="P9">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="Q9">
-        <v>2.429432963080667</v>
+        <v>2.901214657117778</v>
       </c>
       <c r="R9">
-        <v>21.864896667726</v>
+        <v>26.11093191406</v>
       </c>
       <c r="S9">
-        <v>0.0006283536374879876</v>
+        <v>0.0009261774655903961</v>
       </c>
       <c r="T9">
-        <v>0.0006283536374879876</v>
+        <v>0.000926177465590396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H10">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="N10">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="O10">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="P10">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="Q10">
-        <v>197.4618338960983</v>
+        <v>321.19091378059</v>
       </c>
       <c r="R10">
-        <v>1777.156505064885</v>
+        <v>2890.71822402531</v>
       </c>
       <c r="S10">
-        <v>0.05107194290980829</v>
+        <v>0.1025362896765118</v>
       </c>
       <c r="T10">
-        <v>0.05107194290980829</v>
+        <v>0.1025362896765118</v>
       </c>
     </row>
   </sheetData>
